--- a/pages/발주서예제.xlsx
+++ b/pages/발주서예제.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26AFF9FF-A62A-4083-BC30-596504BC5369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E05A9B-7E14-476A-8E73-55FC3BDA122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73410" yWindow="720" windowWidth="19020" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0 (3)" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet0" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet0 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="필드값매치" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet0 (3)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet0 (2)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="101">
   <si>
     <t>NO</t>
   </si>
@@ -295,6 +296,60 @@
   </si>
   <si>
     <t>속성정보</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남중학교</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연월필드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주처필드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰기업필드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>no필드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품명필드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격필드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성정보필드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당일~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기(갈비)/구이용</t>
+  </si>
+  <si>
+    <t>[1000g],[kg],[국산],[2등급 이상],[구이용],[냉동]</t>
+  </si>
+  <si>
+    <t>no1 수량 총합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합*계약단가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-04</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -356,6 +411,12 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -502,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +700,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,11 +1031,1441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE585AD-FE35-47E2-A452-6162F5794397}">
+  <dimension ref="A1:AN25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AR7" sqref="AR7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.8984375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="3" style="16" customWidth="1"/>
+    <col min="7" max="7" width="27.59765625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="5.19921875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.19921875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="9.796875" style="16" customWidth="1"/>
+    <col min="12" max="13" width="5.19921875" style="16" customWidth="1"/>
+    <col min="14" max="15" width="5.19921875" style="16" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="9.19921875" style="16" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.19921875" style="16" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.8984375" style="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.19921875" style="16" hidden="1" customWidth="1"/>
+    <col min="21" max="23" width="5.19921875" style="16" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="9.19921875" style="16" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="10.8984375" style="16" hidden="1" customWidth="1"/>
+    <col min="27" max="29" width="5.19921875" style="16" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="9.19921875" style="16" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="10.8984375" style="16" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="9.19921875" style="16" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="5.19921875" style="16" hidden="1" customWidth="1"/>
+    <col min="34" max="37" width="5.19921875" style="16" customWidth="1"/>
+    <col min="38" max="38" width="11.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.796875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="52" customFormat="1">
+      <c r="A2" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="51">
+        <v>1</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51">
+        <v>90</v>
+      </c>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM2" s="53">
+        <v>9000</v>
+      </c>
+      <c r="AN2" s="50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="36" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+    </row>
+    <row r="4" spans="1:40" ht="36" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+    </row>
+    <row r="5" spans="1:40" ht="36" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+    </row>
+    <row r="6" spans="1:40" ht="36" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+    </row>
+    <row r="7" spans="1:40" ht="36" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+    </row>
+    <row r="8" spans="1:40" ht="36" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+    </row>
+    <row r="9" spans="1:40" ht="36" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+    </row>
+    <row r="10" spans="1:40" ht="36" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+    </row>
+    <row r="11" spans="1:40" ht="36" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+    </row>
+    <row r="12" spans="1:40" ht="36" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+    </row>
+    <row r="13" spans="1:40" ht="36" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+    </row>
+    <row r="14" spans="1:40" ht="36" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+    </row>
+    <row r="15" spans="1:40" ht="36" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="42">
+        <f>SUM(H3:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="42">
+        <f>SUM(I3:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="42">
+        <f>SUM(J3:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="42">
+        <f>SUM(K3:K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="42">
+        <f>SUM(L3:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="42">
+        <f>SUM(M3:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="42">
+        <f>SUM(N3:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="42">
+        <f>SUM(O3:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="42">
+        <f>SUM(P3:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="42">
+        <f>SUM(Q3:Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="42">
+        <f>SUM(R3:R15)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="42">
+        <f>SUM(S3:S15)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="42">
+        <f>SUM(T3:T15)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="42">
+        <f>SUM(U3:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="42">
+        <f>SUM(V3:V15)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="42">
+        <f>SUM(W3:W15)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="42">
+        <f>SUM(X3:X15)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="42">
+        <f>SUM(Y3:Y15)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="42">
+        <f>SUM(Z3:Z15)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="42">
+        <f>SUM(AA3:AA15)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="42">
+        <f>SUM(AB3:AB15)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="42">
+        <f>SUM(AC3:AC15)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="42">
+        <f>SUM(AD3:AD15)</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="42">
+        <f>SUM(AE3:AE15)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="42">
+        <f>SUM(AF3:AF15)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="42">
+        <f>SUM(AG3:AG15)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="42">
+        <f>SUM(AH3:AH15)</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="42">
+        <f>SUM(AI3:AI15)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="42">
+        <f>SUM(AJ3:AJ15)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="42">
+        <f>SUM(AK3:AK15)</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="43">
+        <f>SUM(AL3:AL15)</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44">
+        <f>I3*AM3</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44">
+        <f>K7*AM7</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44">
+        <f>P3*AM3</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="44">
+        <f>Q3*AM3</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44" t="e">
+        <f>#REF!*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T17" s="44" t="e">
+        <f>SUM(T6*AM6)+(#REF!*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44">
+        <f>SUM(X4*AM4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="44">
+        <f>SUM(Y5*AM5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="44">
+        <f>SUM(Z10*AM10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44">
+        <f>SUM(AD9*AM9)+(AD10*AM10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="44">
+        <f>SUM(AE5*AM5)+(AE8*AM8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="44">
+        <f>AF9*AM9</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="40" t="e">
+        <f>SUM(I17:AK17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40">
+        <f>SUM(AN3:AN15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
+      <c r="A18" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL18" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM18" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN18" s="49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="52.8">
+      <c r="A19" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM19" s="32">
+        <v>8950</v>
+      </c>
+      <c r="AN19" s="20">
+        <f>AL19*AM19</f>
+        <v>537000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="52.8">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM20" s="32">
+        <v>9050</v>
+      </c>
+      <c r="AN20" s="20">
+        <f t="shared" ref="AN20:AN21" si="0">AL20*AM20</f>
+        <v>1420850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="39.6">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM21" s="32">
+        <v>23516</v>
+      </c>
+      <c r="AN21" s="20">
+        <f t="shared" si="0"/>
+        <v>2351600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44">
+        <f>I21*AM21</f>
+        <v>2351600</v>
+      </c>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44">
+        <f>Q20*AM20</f>
+        <v>895950</v>
+      </c>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44">
+        <f>Y20*AM20</f>
+        <v>524900</v>
+      </c>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44">
+        <f>AF19*AM19</f>
+        <v>537000</v>
+      </c>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="40">
+        <f>SUM(H23:AK23)</f>
+        <v>4309450</v>
+      </c>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40">
+        <f>SUM(AN19:AN22)</f>
+        <v>4309450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="D25" s="18"/>
+      <c r="E25" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B3E52B-46AD-432E-862C-5462BFD3CE74}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2364,7 +3870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
@@ -3774,7 +5280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969616FF-2E23-42CB-AFCF-AA3FF88B712F}">
   <dimension ref="A1:R14"/>
   <sheetViews>

--- a/pages/발주서예제.xlsx
+++ b/pages/발주서예제.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E05A9B-7E14-476A-8E73-55FC3BDA122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C166C9F7-BF26-4A87-83F8-B13F2A116BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="필드값매치" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet0 (3)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet0" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet0 (2)" sheetId="2" r:id="rId4"/>
+    <sheet name="예제시트" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet0 (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="87">
   <si>
     <t>NO</t>
   </si>
@@ -296,60 +295,6 @@
   </si>
   <si>
     <t>속성정보</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남중학교</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>연월필드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주처필드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙찰기업필드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>no필드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>식품명필드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>규격필드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성정보필드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당일~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지고기(갈비)/구이용</t>
-  </si>
-  <si>
-    <t>[1000g],[kg],[국산],[2등급 이상],[구이용],[냉동]</t>
-  </si>
-  <si>
-    <t>no1 수량 총합</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>총합*계약단가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -411,12 +356,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -563,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,21 +639,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,244 +955,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE585AD-FE35-47E2-A452-6162F5794397}">
-  <dimension ref="A1:AN25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B3E52B-46AD-432E-862C-5462BFD3CE74}">
+  <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AR7" sqref="AR7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.09765625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.8984375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="25.19921875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="3" style="16" customWidth="1"/>
-    <col min="7" max="7" width="27.59765625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.296875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.19921875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.19921875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="9.796875" style="16" customWidth="1"/>
-    <col min="12" max="13" width="5.19921875" style="16" customWidth="1"/>
-    <col min="14" max="15" width="5.19921875" style="16" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="9.19921875" style="16" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.19921875" style="16" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.8984375" style="16" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.19921875" style="16" hidden="1" customWidth="1"/>
-    <col min="21" max="23" width="5.19921875" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="9.19921875" style="16" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="10.8984375" style="16" hidden="1" customWidth="1"/>
-    <col min="27" max="29" width="5.19921875" style="16" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.19921875" style="16" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="10.8984375" style="16" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="9.19921875" style="16" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="5.19921875" style="16" hidden="1" customWidth="1"/>
-    <col min="34" max="37" width="5.19921875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.796875" style="16" customWidth="1"/>
+    <col min="10" max="13" width="5.19921875" style="16" customWidth="1"/>
+    <col min="14" max="15" width="9.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.19921875" style="16" customWidth="1"/>
+    <col min="17" max="17" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="5.19921875" style="16" customWidth="1"/>
+    <col min="22" max="23" width="9.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.19921875" style="16" customWidth="1"/>
+    <col min="28" max="28" width="9.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="5.19921875" style="16" customWidth="1"/>
+    <col min="36" max="36" width="11.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.8984375" style="17" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.8984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.8984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.8984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.796875" style="17"/>
+    <col min="39" max="16384" width="8.796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:38">
       <c r="A1" s="34" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="36" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36">
         <v>10</v>
       </c>
-      <c r="O1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="26" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
+        <v>70</v>
+      </c>
+      <c r="O2" s="37">
         <v>20</v>
       </c>
-      <c r="Y1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="52" customFormat="1">
-      <c r="A2" s="54" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="24">
+        <f t="shared" ref="AJ2:AJ11" si="0">SUM(F2:AI2)</f>
         <v>100</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="51">
-        <v>1</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51">
-        <v>90</v>
-      </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM2" s="53">
-        <v>9000</v>
-      </c>
-      <c r="AN2" s="50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="36" customHeight="1">
+      <c r="AK2" s="20">
+        <v>11025</v>
+      </c>
+      <c r="AL2" s="20">
+        <f>AJ2*AK2</f>
+        <v>1102500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="36" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
       <c r="M3" s="37"/>
@@ -1280,7 +1200,9 @@
       <c r="S3" s="37"/>
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
+      <c r="V3" s="37">
+        <v>70</v>
+      </c>
       <c r="W3" s="37"/>
       <c r="X3" s="37"/>
       <c r="Y3" s="37"/>
@@ -1294,23 +1216,35 @@
       <c r="AG3" s="37"/>
       <c r="AH3" s="37"/>
       <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-    </row>
-    <row r="4" spans="1:40" ht="36" customHeight="1">
+      <c r="AJ3" s="24">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="AK3" s="20">
+        <v>11000</v>
+      </c>
+      <c r="AL3" s="20">
+        <f t="shared" ref="AL3:AL11" si="1">AJ3*AK3</f>
+        <v>770000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="36" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="C4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
@@ -1323,36 +1257,52 @@
       <c r="T4" s="37"/>
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
+      <c r="W4" s="37">
+        <v>20</v>
+      </c>
       <c r="X4" s="37"/>
       <c r="Y4" s="37"/>
       <c r="Z4" s="37"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
+      <c r="AC4" s="37">
+        <v>15</v>
+      </c>
       <c r="AD4" s="37"/>
       <c r="AE4" s="37"/>
       <c r="AF4" s="37"/>
       <c r="AG4" s="37"/>
       <c r="AH4" s="37"/>
       <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-    </row>
-    <row r="5" spans="1:40" ht="36" customHeight="1">
+      <c r="AJ4" s="24">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AK4" s="20">
+        <v>11000</v>
+      </c>
+      <c r="AL4" s="20">
+        <f t="shared" si="1"/>
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="36" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="C5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
       <c r="M5" s="37"/>
@@ -1360,7 +1310,9 @@
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
+      <c r="R5" s="37">
+        <v>30</v>
+      </c>
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
       <c r="U5" s="37"/>
@@ -1378,23 +1330,37 @@
       <c r="AG5" s="37"/>
       <c r="AH5" s="37"/>
       <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-    </row>
-    <row r="6" spans="1:40" ht="36" customHeight="1">
+      <c r="AJ5" s="24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AK5" s="20">
+        <v>11000</v>
+      </c>
+      <c r="AL5" s="20">
+        <f t="shared" si="1"/>
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="36" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="C6" s="21">
+        <v>5</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37">
+        <v>85</v>
+      </c>
+      <c r="J6" s="37"/>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
@@ -1420,1510 +1386,19 @@
       <c r="AG6" s="37"/>
       <c r="AH6" s="37"/>
       <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
-    </row>
-    <row r="7" spans="1:40" ht="36" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-    </row>
-    <row r="8" spans="1:40" ht="36" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-    </row>
-    <row r="9" spans="1:40" ht="36" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-    </row>
-    <row r="10" spans="1:40" ht="36" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-    </row>
-    <row r="11" spans="1:40" ht="36" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-    </row>
-    <row r="12" spans="1:40" ht="36" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-    </row>
-    <row r="13" spans="1:40" ht="36" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-    </row>
-    <row r="14" spans="1:40" ht="36" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-    </row>
-    <row r="15" spans="1:40" ht="36" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="42">
-        <f>SUM(H3:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="42">
-        <f>SUM(I3:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="42">
-        <f>SUM(J3:J15)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="42">
-        <f>SUM(K3:K15)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="42">
-        <f>SUM(L3:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="42">
-        <f>SUM(M3:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="42">
-        <f>SUM(N3:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="42">
-        <f>SUM(O3:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="42">
-        <f>SUM(P3:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="42">
-        <f>SUM(Q3:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="42">
-        <f>SUM(R3:R15)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="42">
-        <f>SUM(S3:S15)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="42">
-        <f>SUM(T3:T15)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="42">
-        <f>SUM(U3:U15)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="42">
-        <f>SUM(V3:V15)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="42">
-        <f>SUM(W3:W15)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="42">
-        <f>SUM(X3:X15)</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="42">
-        <f>SUM(Y3:Y15)</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="42">
-        <f>SUM(Z3:Z15)</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="42">
-        <f>SUM(AA3:AA15)</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="42">
-        <f>SUM(AB3:AB15)</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="42">
-        <f>SUM(AC3:AC15)</f>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="42">
-        <f>SUM(AD3:AD15)</f>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="42">
-        <f>SUM(AE3:AE15)</f>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="42">
-        <f>SUM(AF3:AF15)</f>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="42">
-        <f>SUM(AG3:AG15)</f>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="42">
-        <f>SUM(AH3:AH15)</f>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="42">
-        <f>SUM(AI3:AI15)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="42">
-        <f>SUM(AJ3:AJ15)</f>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="42">
-        <f>SUM(AK3:AK15)</f>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="43">
-        <f>SUM(AL3:AL15)</f>
-        <v>0</v>
-      </c>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
-    </row>
-    <row r="17" spans="1:40">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44">
-        <f>I3*AM3</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44">
-        <f>K7*AM7</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44">
-        <f>P3*AM3</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="44">
-        <f>Q3*AM3</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44" t="e">
-        <f>#REF!*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T17" s="44" t="e">
-        <f>SUM(T6*AM6)+(#REF!*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44">
-        <f>SUM(X4*AM4)</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="44">
-        <f>SUM(Y5*AM5)</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="44">
-        <f>SUM(Z10*AM10)</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44">
-        <f>SUM(AD9*AM9)+(AD10*AM10)</f>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="44">
-        <f>SUM(AE5*AM5)+(AE8*AM8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="44">
-        <f>AF9*AM9</f>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
-      <c r="AK17" s="44"/>
-      <c r="AL17" s="40" t="e">
-        <f>SUM(I17:AK17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40">
-        <f>SUM(AN3:AN15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
-      <c r="A18" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="R18" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="U18" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="V18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="W18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="X18" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z18" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA18" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB18" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC18" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF18" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK18" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL18" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM18" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN18" s="49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" ht="52.8">
-      <c r="A19" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM19" s="32">
-        <v>8950</v>
-      </c>
-      <c r="AN19" s="20">
-        <f>AL19*AM19</f>
-        <v>537000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" ht="52.8">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM20" s="32">
-        <v>9050</v>
-      </c>
-      <c r="AN20" s="20">
-        <f t="shared" ref="AN20:AN21" si="0">AL20*AM20</f>
-        <v>1420850</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" ht="39.6">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM21" s="32">
-        <v>23516</v>
-      </c>
-      <c r="AN21" s="20">
-        <f t="shared" si="0"/>
-        <v>2351600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="40"/>
-    </row>
-    <row r="23" spans="1:40">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44">
-        <f>I21*AM21</f>
-        <v>2351600</v>
-      </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44">
-        <f>Q20*AM20</f>
-        <v>895950</v>
-      </c>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44">
-        <f>Y20*AM20</f>
-        <v>524900</v>
-      </c>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44">
-        <f>AF19*AM19</f>
-        <v>537000</v>
-      </c>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="44"/>
-      <c r="AL23" s="40">
-        <f>SUM(H23:AK23)</f>
-        <v>4309450</v>
-      </c>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="40">
-        <f>SUM(AN19:AN22)</f>
-        <v>4309450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40">
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:40">
-      <c r="D25" s="18"/>
-      <c r="E25" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B3E52B-46AD-432E-862C-5462BFD3CE74}">
-  <dimension ref="A1:AM21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="20.09765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.296875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="3" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.59765625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="5.19921875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.19921875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" style="16" customWidth="1"/>
-    <col min="11" max="14" width="5.19921875" style="16" customWidth="1"/>
-    <col min="15" max="16" width="9.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.19921875" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="5.19921875" style="16" customWidth="1"/>
-    <col min="23" max="24" width="9.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="5.19921875" style="16" customWidth="1"/>
-    <col min="29" max="29" width="9.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="5.19921875" style="16" customWidth="1"/>
-    <col min="37" max="37" width="11.8984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.8984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.8984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.796875" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39">
-      <c r="A1" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="36" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36">
-        <v>10</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37">
-        <v>70</v>
-      </c>
-      <c r="P2" s="37">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="24">
-        <f t="shared" ref="AK2:AK11" si="0">SUM(G2:AJ2)</f>
-        <v>100</v>
-      </c>
-      <c r="AL2" s="20">
-        <v>11025</v>
-      </c>
-      <c r="AM2" s="20">
-        <f>AK2*AL2</f>
-        <v>1102500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" ht="36" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37">
-        <v>70</v>
-      </c>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="24">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AL3" s="20">
-        <v>11000</v>
-      </c>
-      <c r="AM3" s="20">
-        <f t="shared" ref="AM3:AM11" si="1">AK3*AL3</f>
-        <v>770000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="36" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="24">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="AL4" s="20">
-        <v>11000</v>
-      </c>
-      <c r="AM4" s="20">
-        <f t="shared" si="1"/>
-        <v>385000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="36" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37">
-        <v>30</v>
-      </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AL5" s="20">
-        <v>11000</v>
-      </c>
-      <c r="AM5" s="20">
-        <f t="shared" si="1"/>
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="36" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21">
-        <v>5</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37">
-        <v>85</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="24">
+      <c r="AJ6" s="24">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
+      <c r="AK6" s="20">
+        <v>19000</v>
+      </c>
       <c r="AL6" s="20">
-        <v>19000</v>
-      </c>
-      <c r="AM6" s="20">
         <f t="shared" si="1"/>
         <v>1615000</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="36" customHeight="1">
+    <row r="7" spans="1:38" ht="36" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21">
@@ -2932,15 +1407,13 @@
       <c r="D7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
@@ -2960,29 +1433,28 @@
       <c r="Z7" s="37"/>
       <c r="AA7" s="37"/>
       <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37">
+      <c r="AC7" s="37">
         <v>80</v>
       </c>
+      <c r="AD7" s="37"/>
       <c r="AE7" s="37"/>
       <c r="AF7" s="37"/>
       <c r="AG7" s="37"/>
       <c r="AH7" s="37"/>
       <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="24">
+      <c r="AJ7" s="24">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="AK7" s="20">
+        <v>16000</v>
+      </c>
       <c r="AL7" s="20">
-        <v>16000</v>
-      </c>
-      <c r="AM7" s="20">
         <f t="shared" si="1"/>
         <v>1280000</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="36" customHeight="1">
+    <row r="8" spans="1:38" ht="36" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21">
@@ -2991,15 +1463,13 @@
       <c r="D8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
@@ -3018,32 +1488,31 @@
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37">
+      <c r="AB8" s="37">
         <v>20</v>
       </c>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37">
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37">
         <v>20</v>
       </c>
+      <c r="AE8" s="37"/>
       <c r="AF8" s="37"/>
       <c r="AG8" s="37"/>
       <c r="AH8" s="37"/>
       <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="24">
+      <c r="AJ8" s="24">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="AK8" s="20">
+        <v>18000</v>
+      </c>
       <c r="AL8" s="20">
-        <v>18000</v>
-      </c>
-      <c r="AM8" s="20">
         <f t="shared" si="1"/>
         <v>720000</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="36" customHeight="1">
+    <row r="9" spans="1:38" ht="36" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21">
@@ -3052,15 +1521,13 @@
       <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
@@ -3075,36 +1542,35 @@
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37">
+      <c r="X9" s="37">
         <v>120</v>
       </c>
+      <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
       <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37">
+      <c r="AB9" s="37">
         <v>20</v>
       </c>
+      <c r="AC9" s="37"/>
       <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
       <c r="AF9" s="37"/>
       <c r="AG9" s="37"/>
       <c r="AH9" s="37"/>
       <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="24">
+      <c r="AJ9" s="24">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
+      <c r="AK9" s="20">
+        <v>12000</v>
+      </c>
       <c r="AL9" s="20">
-        <v>12000</v>
-      </c>
-      <c r="AM9" s="20">
         <f t="shared" si="1"/>
         <v>1680000</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="36" customHeight="1">
+    <row r="10" spans="1:38" ht="36" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21">
@@ -3113,15 +1579,13 @@
       <c r="D10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
@@ -3130,10 +1594,10 @@
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37">
+      <c r="R10" s="37">
         <v>15</v>
       </c>
+      <c r="S10" s="37"/>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
@@ -3150,20 +1614,19 @@
       <c r="AG10" s="37"/>
       <c r="AH10" s="37"/>
       <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="24">
+      <c r="AJ10" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="AK10" s="20">
+        <v>16000</v>
+      </c>
       <c r="AL10" s="20">
-        <v>16000</v>
-      </c>
-      <c r="AM10" s="20">
         <f t="shared" si="1"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="36" customHeight="1">
+    <row r="11" spans="1:38" ht="36" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21">
@@ -3172,15 +1635,13 @@
       <c r="D11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
@@ -3188,10 +1649,10 @@
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37">
+      <c r="Q11" s="37">
         <v>90</v>
       </c>
+      <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
       <c r="U11" s="37"/>
@@ -3209,44 +1670,46 @@
       <c r="AG11" s="37"/>
       <c r="AH11" s="37"/>
       <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="24">
+      <c r="AJ11" s="24">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="AK11" s="20">
+        <v>24500</v>
+      </c>
       <c r="AL11" s="20">
-        <v>24500</v>
-      </c>
-      <c r="AM11" s="20">
         <f t="shared" si="1"/>
         <v>2205000</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:38">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41" t="s">
+      <c r="E12" s="41" t="s">
         <v>61</v>
       </c>
+      <c r="F12" s="42">
+        <f t="shared" ref="F12:AJ12" si="2">SUM(F2:F11)</f>
+        <v>0</v>
+      </c>
       <c r="G12" s="42">
-        <f t="shared" ref="G12:AK12" si="2">SUM(G2:G11)</f>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="42">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="42">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="I12" s="42">
         <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="42">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
       <c r="K12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3261,189 +1724,184 @@
       </c>
       <c r="N12" s="42">
         <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="O12" s="42">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P12" s="42">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" s="42">
+      <c r="Q12" s="42">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="R12" s="42">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="S12" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="42">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="P12" s="42">
+      <c r="W12" s="42">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="X12" s="42">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="Y12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R12" s="42">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="S12" s="42">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="T12" s="42">
+      <c r="Z12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U12" s="42">
+      <c r="AA12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V12" s="42">
+      <c r="AB12" s="42">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC12" s="42">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD12" s="42">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AE12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="42">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="X12" s="42">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="Y12" s="42">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="Z12" s="42">
+      <c r="AF12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="42">
+      <c r="AG12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="42">
+      <c r="AH12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="42">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="AD12" s="42">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="AE12" s="42">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="AF12" s="42">
+      <c r="AI12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="43">
+      <c r="AJ12" s="43">
         <f t="shared" si="2"/>
         <v>685</v>
       </c>
+      <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-    </row>
-    <row r="13" spans="1:39">
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44" t="s">
+      <c r="E13" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44">
-        <f>H2*AL2</f>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44">
+        <f>G2*AK2</f>
         <v>110250</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44">
-        <f>J6*AL6</f>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44">
+        <f>I6*AK6</f>
         <v>1615000</v>
       </c>
+      <c r="J13" s="44"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
+      <c r="N13" s="44">
+        <f>N2*AK2</f>
+        <v>771750</v>
+      </c>
       <c r="O13" s="44">
-        <f>O2*AL2</f>
-        <v>771750</v>
-      </c>
-      <c r="P13" s="44">
-        <f>P2*AL2</f>
+        <f>O2*AK2</f>
         <v>220500</v>
       </c>
-      <c r="Q13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44">
+        <f>Q11*AK11</f>
+        <v>2205000</v>
+      </c>
       <c r="R13" s="44">
-        <f>R11*AL11</f>
-        <v>2205000</v>
-      </c>
-      <c r="S13" s="44">
-        <f>SUM(S5*AL5)+(S10*AL10)</f>
+        <f>SUM(R5*AK5)+(R10*AK10)</f>
         <v>570000</v>
       </c>
+      <c r="S13" s="44"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
+      <c r="V13" s="44">
+        <f>SUM(V3*AK3)</f>
+        <v>770000</v>
+      </c>
       <c r="W13" s="44">
-        <f>SUM(W3*AL3)</f>
-        <v>770000</v>
+        <f>SUM(W4*AK4)</f>
+        <v>220000</v>
       </c>
       <c r="X13" s="44">
-        <f>SUM(X4*AL4)</f>
-        <v>220000</v>
-      </c>
-      <c r="Y13" s="44">
-        <f>SUM(Y9*AL9)</f>
+        <f>SUM(X9*AK9)</f>
         <v>1440000</v>
       </c>
+      <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
+      <c r="AB13" s="44">
+        <f>SUM(AB8*AK8)+(AB9*AK9)</f>
+        <v>600000</v>
+      </c>
       <c r="AC13" s="44">
-        <f>SUM(AC8*AL8)+(AC9*AL9)</f>
-        <v>600000</v>
+        <f>SUM(AC4*AK4)+(AC7*AK7)</f>
+        <v>1445000</v>
       </c>
       <c r="AD13" s="44">
-        <f>SUM(AD4*AL4)+(AD7*AL7)</f>
-        <v>1445000</v>
-      </c>
-      <c r="AE13" s="44">
-        <f>AE8*AL8</f>
+        <f>AD8*AK8</f>
         <v>360000</v>
       </c>
+      <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
       <c r="AG13" s="44"/>
       <c r="AH13" s="44"/>
       <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="40">
-        <f>SUM(H13:AJ13)</f>
+      <c r="AJ13" s="40">
+        <f>SUM(G13:AI13)</f>
         <v>10327500</v>
       </c>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40">
-        <f>SUM(AM2:AM11)</f>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40">
+        <f>SUM(AL2:AL11)</f>
         <v>10327500</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:38">
       <c r="A14" s="34" t="s">
         <v>62</v>
       </c>
@@ -3457,112 +1915,109 @@
         <v>1</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="27" t="s">
         <v>3</v>
       </c>
+      <c r="F14" s="28" t="s">
+        <v>4</v>
+      </c>
       <c r="G14" s="28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T14" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U14" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X14" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y14" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z14" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB14" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC14" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD14" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE14" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF14" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG14" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH14" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI14" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ14" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK14" s="28" t="s">
         <v>34</v>
       </c>
+      <c r="AK14" s="49" t="s">
+        <v>35</v>
+      </c>
       <c r="AL14" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM14" s="49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="52.8">
+    <row r="15" spans="1:38" ht="52.8">
       <c r="A15" s="20" t="s">
         <v>80</v>
       </c>
@@ -3575,56 +2030,53 @@
       <c r="D15" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
       <c r="AA15" s="25"/>
       <c r="AB15" s="25"/>
       <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="31" t="s">
+      <c r="AD15" s="31" t="s">
         <v>68</v>
       </c>
+      <c r="AE15" s="25"/>
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
       <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="31" t="s">
+      <c r="AJ15" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AL15" s="32">
+      <c r="AK15" s="32">
         <v>8950</v>
       </c>
-      <c r="AM15" s="20">
-        <f>AK15*AL15</f>
+      <c r="AL15" s="20">
+        <f>AJ15*AK15</f>
         <v>537000</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="52.8">
+    <row r="16" spans="1:38" ht="52.8">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="39" t="s">
@@ -3633,58 +2085,55 @@
       <c r="D16" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="31"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="33" t="s">
+      <c r="O16" s="33" t="s">
         <v>71</v>
       </c>
+      <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="33" t="s">
+      <c r="W16" s="33" t="s">
         <v>72</v>
       </c>
+      <c r="X16" s="25"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
       <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="25"/>
       <c r="AF16" s="25"/>
       <c r="AG16" s="25"/>
       <c r="AH16" s="25"/>
       <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="31" t="s">
+      <c r="AJ16" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="AL16" s="32">
+      <c r="AK16" s="32">
         <v>9050</v>
       </c>
-      <c r="AM16" s="20">
-        <f t="shared" ref="AM16:AM17" si="3">AK16*AL16</f>
+      <c r="AL16" s="20">
+        <f t="shared" ref="AL16:AL17" si="3">AJ16*AK16</f>
         <v>1420850</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="39.6">
+    <row r="17" spans="1:38" ht="39.6">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="39" t="s">
@@ -3693,174 +2142,169 @@
       <c r="D17" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="33" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="33" t="s">
         <v>76</v>
       </c>
+      <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
       <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="25"/>
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
       <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="31" t="s">
+      <c r="AJ17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AL17" s="32">
+      <c r="AK17" s="32">
         <v>23516</v>
       </c>
-      <c r="AM17" s="20">
+      <c r="AL17" s="20">
         <f t="shared" si="3"/>
         <v>2351600</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:38">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="45"/>
       <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46" t="s">
+      <c r="E18" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="47" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="47" t="s">
         <v>76</v>
       </c>
+      <c r="H18" s="44"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
       <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="47" t="s">
+      <c r="O18" s="47" t="s">
         <v>71</v>
       </c>
+      <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="47" t="s">
+      <c r="W18" s="47" t="s">
         <v>72</v>
       </c>
+      <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
       <c r="Z18" s="44"/>
       <c r="AA18" s="44"/>
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="47" t="s">
+      <c r="AD18" s="47" t="s">
         <v>68</v>
       </c>
+      <c r="AE18" s="44"/>
       <c r="AF18" s="44"/>
       <c r="AG18" s="44"/>
       <c r="AH18" s="44"/>
       <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="47" t="s">
+      <c r="AJ18" s="47" t="s">
         <v>77</v>
       </c>
+      <c r="AK18" s="40"/>
       <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
-    </row>
-    <row r="19" spans="1:39">
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" s="40"/>
       <c r="B19" s="40"/>
       <c r="C19" s="48"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44" t="s">
+      <c r="E19" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44">
-        <f>H17*AL17</f>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44">
+        <f>G17*AK17</f>
         <v>2351600</v>
       </c>
+      <c r="H19" s="44"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
       <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44">
-        <f>P16*AL16</f>
+      <c r="O19" s="44">
+        <f>O16*AK16</f>
         <v>895950</v>
       </c>
+      <c r="P19" s="44"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44">
-        <f>X16*AL16</f>
+      <c r="W19" s="44">
+        <f>W16*AK16</f>
         <v>524900</v>
       </c>
+      <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
       <c r="Z19" s="44"/>
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44">
-        <f>AE15*AL15</f>
+      <c r="AD19" s="44">
+        <f>AD15*AK15</f>
         <v>537000</v>
       </c>
+      <c r="AE19" s="44"/>
       <c r="AF19" s="44"/>
       <c r="AG19" s="44"/>
       <c r="AH19" s="44"/>
       <c r="AI19" s="44"/>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="40">
-        <f>SUM(G19:AJ19)</f>
+      <c r="AJ19" s="40">
+        <f>SUM(F19:AI19)</f>
         <v>4309450</v>
       </c>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40">
-        <f>SUM(AM15:AM18)</f>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40">
+        <f>SUM(AL15:AL18)</f>
         <v>4309450</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:38">
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:38">
       <c r="C21" s="18"/>
       <c r="D21" s="15"/>
     </row>
@@ -3870,7 +2314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
@@ -5280,7 +3724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969616FF-2E23-42CB-AFCF-AA3FF88B712F}">
   <dimension ref="A1:R14"/>
   <sheetViews>
@@ -5400,7 +3844,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6">
-        <f>SUM(E4:P4)</f>
+        <f t="shared" ref="Q4:Q13" si="0">SUM(E4:P4)</f>
         <v>100</v>
       </c>
       <c r="R4">
@@ -5435,7 +3879,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6">
-        <f>SUM(E5:P5)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="R5">
@@ -5472,7 +3916,7 @@
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6">
-        <f>SUM(E6:P6)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="R6">
@@ -5507,7 +3951,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6">
-        <f>SUM(E7:P7)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="R7">
@@ -5542,7 +3986,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6">
-        <f>SUM(E8:P8)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="R8">
@@ -5577,7 +4021,7 @@
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6">
-        <f>SUM(E9:P9)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="R9">
@@ -5614,7 +4058,7 @@
         <v>20</v>
       </c>
       <c r="Q10" s="6">
-        <f>SUM(E10:P10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="R10">
@@ -5651,7 +4095,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6">
-        <f>SUM(E11:P11)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="R11">
@@ -5686,7 +4130,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6">
-        <f>SUM(E12:P12)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R12">
@@ -5721,7 +4165,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6">
-        <f>SUM(E13:P13)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="R13">
@@ -5736,55 +4180,55 @@
         <v>61</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" ref="E14:Q14" si="0">SUM(E4:E13)</f>
+        <f t="shared" ref="E14:Q14" si="1">SUM(E4:E13)</f>
         <v>10</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Q14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>685</v>
       </c>
     </row>
